--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.102320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.102320.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3329,12 +3329,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5693,12 +5693,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6423,12 +6423,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7371,12 +7371,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7599,12 +7599,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8017,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8979,12 +8979,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9481,12 +9481,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10205,12 +10205,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10547,12 +10547,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11041,12 +11041,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11463,12 +11463,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11657,12 +11657,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11927,12 +11927,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12041,12 +12041,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12305,12 +12305,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12419,12 +12419,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12647,12 +12647,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12989,12 +12989,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13293,12 +13293,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14857,12 +14857,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14933,12 +14933,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
